--- a/data/trans_camb/P15-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P15-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-2.192812734036836</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-2.51384726129923</v>
+        <v>-2.513847261299229</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.3142335849786126</v>
@@ -655,7 +655,7 @@
         <v>0.5863640679532698</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.1652511031909477</v>
+        <v>0.165251103190947</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.4038055502829721</v>
@@ -664,7 +664,7 @@
         <v>-1.059314332772496</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-1.409881293345638</v>
+        <v>-1.409881293345639</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.997239428590509</v>
+        <v>-2.947391588337327</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.354382159622937</v>
+        <v>-5.700064132651072</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.664038948439755</v>
+        <v>-5.977739012599788</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.487847684926863</v>
+        <v>-3.6016461659561</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.015627928955658</v>
+        <v>-3.107321296925087</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.186804797642025</v>
+        <v>-3.404898754351439</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.204661327242742</v>
+        <v>-1.94210647980353</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.432054309371895</v>
+        <v>-3.372433702468555</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.618281114447054</v>
+        <v>-3.603570713983775</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.615740147320803</v>
+        <v>4.214864539361971</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.277764688378214</v>
+        <v>0.9279534086336497</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5049390484611906</v>
+        <v>0.1814008357032887</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.125790313793754</v>
+        <v>4.31971336225871</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.04095384804855</v>
+        <v>4.3556096811534</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.617114358347112</v>
+        <v>2.746303974542145</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.333148597614203</v>
+        <v>2.924590343518525</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.454440389740202</v>
+        <v>1.137152225506591</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7725468143925034</v>
+        <v>0.6953450759463834</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.1128334715353654</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03179911025784329</v>
+        <v>0.03179911025784316</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.06289899656945706</v>
@@ -769,7 +769,7 @@
         <v>-0.1650046873707956</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.2196109453457121</v>
+        <v>-0.2196109453457122</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.370706144118071</v>
+        <v>-0.3486986635893386</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.605813286526464</v>
+        <v>-0.6348492116213226</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6193330881898085</v>
+        <v>-0.6474891326964612</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5239182880895562</v>
+        <v>-0.5186422099470308</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4395615669002441</v>
+        <v>-0.453833343896014</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4280685243069901</v>
+        <v>-0.4519187773209077</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2926262168669042</v>
+        <v>-0.2772436989156262</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4443205827644255</v>
+        <v>-0.4430267156114885</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4680130984853782</v>
+        <v>-0.4642579432621528</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8417159732427992</v>
+        <v>0.7379739711085581</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2649997067427782</v>
+        <v>0.1883060471988872</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.09637221429718815</v>
+        <v>0.07273038850423996</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.401587685603632</v>
+        <v>1.294966127897704</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.263892213533876</v>
+        <v>1.35571803572575</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8459238510538553</v>
+        <v>0.7859120664930151</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.618455264254768</v>
+        <v>0.565925789006424</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2892138156012749</v>
+        <v>0.2395052877730413</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1483988069487799</v>
+        <v>0.1426287241796638</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>2.789595272692209</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.760912301757822</v>
+        <v>2.760912301757823</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.759322019757854</v>
@@ -878,7 +878,7 @@
         <v>0.1198374312087767</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.519014522766182</v>
+        <v>0.5190145227661813</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.213579217837117</v>
+        <v>-3.294391373357217</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.196006224946625</v>
+        <v>-6.128445245828897</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.72426428530723</v>
+        <v>-5.662364540308515</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.259894278078434</v>
+        <v>1.305025781692465</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.2004420180190855</v>
+        <v>-0.08787860022920133</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.2671098382411048</v>
+        <v>0.04821981978437895</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.193900339599911</v>
+        <v>-0.09538476771433482</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.315863320537771</v>
+        <v>-2.070164639281156</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.785108500211544</v>
+        <v>-1.664382209447995</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.447684146912934</v>
+        <v>4.46564251029131</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6950429047791324</v>
+        <v>0.8667139114272191</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.88840204077146</v>
+        <v>1.859932025985809</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.345090415161966</v>
+        <v>9.032245203393503</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.282435415066123</v>
+        <v>6.451722731310015</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.411834496837541</v>
+        <v>5.464740979552099</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.300780957199972</v>
+        <v>5.403574573367962</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.499960915939813</v>
+        <v>2.643456234192517</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.896904897778067</v>
+        <v>2.638497885203587</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.3647475316673395</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.2431183659747634</v>
+        <v>-0.2431183659747636</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>1.527711965738482</v>
@@ -974,7 +974,7 @@
         <v>0.8875025732515043</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8783771596970862</v>
+        <v>0.8783771596970864</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.5435565658532127</v>
@@ -983,7 +983,7 @@
         <v>0.02360667660465</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.1022402422053976</v>
+        <v>0.1022402422053975</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3519191524142058</v>
+        <v>-0.358137101923167</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.660800734563421</v>
+        <v>-0.6747309982360764</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6036446797524617</v>
+        <v>-0.6100161700293735</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.2186096472086176</v>
+        <v>0.1743240205841193</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.07851759929681493</v>
+        <v>-0.1188381797856336</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.05109859561654935</v>
+        <v>-0.03828356382347366</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01393365067196734</v>
+        <v>-0.02249246102407043</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3751920895707253</v>
+        <v>-0.3368783756803315</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2772288675638677</v>
+        <v>-0.2687095155891086</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9257493351458966</v>
+        <v>0.8721017938715173</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1599643028386148</v>
+        <v>0.2049545978612269</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.4294815580669008</v>
+        <v>0.4265095081606629</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>4.258393973052962</v>
+        <v>4.872859938678239</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.492284966161312</v>
+        <v>3.437735166401559</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.52228759170977</v>
+        <v>2.87827924298341</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.339485434632704</v>
+        <v>1.379618741579881</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6719328788710363</v>
+        <v>0.7296612104085453</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.7547946583063769</v>
+        <v>0.7162237268294493</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-2.824219344070436</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.8738610450509748</v>
+        <v>-0.8738610450509763</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>3.218242326716873</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.743355759508925</v>
+        <v>-2.587599847919699</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.000848643634247</v>
+        <v>-5.859690225446151</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.446248701150987</v>
+        <v>-4.293408874043303</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.79810560202536</v>
+        <v>-0.9294700208653185</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.010418090900919</v>
+        <v>-1.156657219670671</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2915649242018251</v>
+        <v>-0.06097008690642763</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.66099863156096</v>
+        <v>-1.579657123848333</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.266515262255369</v>
+        <v>-4.199369786757611</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.499249870474531</v>
+        <v>-2.50244267146836</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.027573092013957</v>
+        <v>4.484601738527311</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4864789890500985</v>
+        <v>0.30098835039267</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.731696816270404</v>
+        <v>2.756393940798829</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.894948083208578</v>
+        <v>7.29624243481324</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.390017604466962</v>
+        <v>7.929014475824195</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.5480554346384</v>
+        <v>7.556301933064131</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.796027440269448</v>
+        <v>4.062745261522131</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.308063495366743</v>
+        <v>1.113129259244354</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.067120350107471</v>
+        <v>3.115885833347083</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.321783173921504</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.09956513513486226</v>
+        <v>-0.09956513513486243</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>1.089223650457384</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.266570966339635</v>
+        <v>-0.2510327589163926</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5699435924447743</v>
+        <v>-0.5589738702258896</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4488570104576645</v>
+        <v>-0.4191623679028266</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2678381863598037</v>
+        <v>-0.257976452647359</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3899510184716933</v>
+        <v>-0.4026589946021913</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.06148816573210997</v>
+        <v>-0.07742457863382744</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1975555624757256</v>
+        <v>-0.2030192373092979</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4748991429398999</v>
+        <v>-0.486055347860488</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2881684133375917</v>
+        <v>-0.284470724390673</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5797985249767243</v>
+        <v>0.6517243842149827</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1083621403723038</v>
+        <v>0.05216581592769341</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3766477131506215</v>
+        <v>0.3846152335267928</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>5.922030052644121</v>
+        <v>7.651413949017862</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>7.094811337864207</v>
+        <v>7.011420696593907</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>7.088361455599492</v>
+        <v>5.702385384889452</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6241372115512333</v>
+        <v>0.6739428047688688</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2584103824807706</v>
+        <v>0.1806350107206826</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5299770690426797</v>
+        <v>0.5340729339932179</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-1.419681243292018</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.3549046884747969</v>
+        <v>0.3549046884747956</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.946698919582023</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.8678120803577103</v>
+        <v>-0.7403773718746499</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.749237246034058</v>
+        <v>-3.584090507574025</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.149798855343668</v>
+        <v>-2.215477805458858</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.12642197851667</v>
+        <v>-2.11622637143833</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.776440309087959</v>
+        <v>-3.743159223709255</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.973470555845557</v>
+        <v>-2.07653361293853</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.9616398830834513</v>
+        <v>-0.8779103174058271</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.068203569782453</v>
+        <v>-3.114837186771489</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.522307654625285</v>
+        <v>-1.46241575909994</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.586823127564294</v>
+        <v>3.648449861485025</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3526589598763959</v>
+        <v>0.3101272571461516</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.389745138204366</v>
+        <v>2.459168232066833</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.747335191406807</v>
+        <v>2.686095889433159</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8185854251030584</v>
+        <v>0.9280858331723694</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.822095824039606</v>
+        <v>2.681456024705191</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.443845509621714</v>
+        <v>2.535789594791317</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.0526508837715732</v>
+        <v>-0.08819214368844869</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.797264726053792</v>
+        <v>1.85349909687442</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.2336090882281432</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05839970139369993</v>
+        <v>0.0583997013936997</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1446059310414603</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1100945896833421</v>
+        <v>-0.1011763081338246</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4763577359893076</v>
+        <v>-0.4480674254486798</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2748981654242756</v>
+        <v>-0.2859742010880488</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3056481497382077</v>
+        <v>-0.2879698212551484</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5073607353492959</v>
+        <v>-0.4966967293834062</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2679319983942427</v>
+        <v>-0.276323461982652</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.136747925692681</v>
+        <v>-0.1183579492883778</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4186120485406661</v>
+        <v>-0.4165600998928427</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.202894223094868</v>
+        <v>-0.2005129633863833</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6271358180699775</v>
+        <v>0.6028055353456997</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.06005910110238454</v>
+        <v>0.05933542616465191</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4050945652425934</v>
+        <v>0.399471598653252</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5709114023588648</v>
+        <v>0.5693978906087497</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1973397839754689</v>
+        <v>0.2027082769661403</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6036284601700613</v>
+        <v>0.5711218954971354</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4120370204290777</v>
+        <v>0.44127429261539</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.0002265292830947124</v>
+        <v>-0.005299543447949595</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3164154323857232</v>
+        <v>0.316351847642938</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-0.1885140239984061</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.7323463087136363</v>
+        <v>0.7323463087136349</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.088966250625012</v>
+        <v>-1.864192208469239</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.517806675736081</v>
+        <v>-2.470949731435084</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.562834647582109</v>
+        <v>-2.440959462385881</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.606655454356074</v>
+        <v>-1.733539853888555</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.694022230715464</v>
+        <v>-3.953444468310537</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.203030869721373</v>
+        <v>-2.319420475932616</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.696941866244051</v>
+        <v>-0.9436961892658061</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.315902983113398</v>
+        <v>-2.123412092490701</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.455823570403486</v>
+        <v>-1.481919110741776</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.115706216146502</v>
+        <v>5.26062489663726</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.656393681172133</v>
+        <v>3.607387740698147</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.803548390585901</v>
+        <v>4.728296714840662</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.065714864439399</v>
+        <v>3.975119603720759</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.65170082887478</v>
+        <v>1.414133658285732</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.867310975520501</v>
+        <v>2.96921657759263</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.54798518943896</v>
+        <v>3.709233270607795</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.633042695414655</v>
+        <v>1.996577913965173</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.890386729440103</v>
+        <v>2.902659056529121</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>-0.03029717721499243</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.1176996036010042</v>
+        <v>0.117699603601004</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.265950829411575</v>
+        <v>-0.238321513727645</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3175020276840907</v>
+        <v>-0.3121662588080806</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3210726645506026</v>
+        <v>-0.3493044145403364</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2117146477474076</v>
+        <v>-0.2041711010290273</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4582197532176207</v>
+        <v>-0.4805203148131387</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2757262268867687</v>
+        <v>-0.2814651226454372</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.09547345953309992</v>
+        <v>-0.1185164069219925</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3068655139480199</v>
+        <v>-0.2877740182273248</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1969166363974082</v>
+        <v>-0.2024715055406574</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.291233682890643</v>
+        <v>1.297261446607917</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.8994554712361938</v>
+        <v>0.899105752022909</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.168339605446998</v>
+        <v>1.140747389907277</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.852574022883223</v>
+        <v>0.7423517954019841</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3380668438118193</v>
+        <v>0.2907143629145441</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.598338945457129</v>
+        <v>0.5982372367783892</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6715710894495331</v>
+        <v>0.768332937756822</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3190606009435641</v>
+        <v>0.4029519985917038</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.5701253526687269</v>
+        <v>0.5909980887061184</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>0.5507675578071032</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.792645423238187</v>
+        <v>0.7926454232381884</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>2.553260527346774</v>
@@ -1734,7 +1734,7 @@
         <v>0.6164591148913761</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-0.3724673964091638</v>
+        <v>-0.3724673964091645</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.802473484825191</v>
+        <v>-4.682242192486165</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.473865360009978</v>
+        <v>-4.815656805799979</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-10.17150858090992</v>
+        <v>-9.937704259705017</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.058678237391364</v>
+        <v>0.9384204447357216</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.475302262581353</v>
+        <v>-1.505559047731071</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.9257114927253507</v>
+        <v>-1.00429330759809</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.472432062738063</v>
+        <v>0.5819487327641356</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.146534193412413</v>
+        <v>-1.218914760589955</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-2.13334882147413</v>
+        <v>-2.153782993935799</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.15865775629556</v>
+        <v>4.757974108197933</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.435893963049011</v>
+        <v>5.326885662328016</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.5598121695433201</v>
+        <v>0.4967059973909519</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5.442006531408621</v>
+        <v>5.195997201209734</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.44330843566957</v>
+        <v>2.576533533680725</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.959982820828851</v>
+        <v>3.10325867230964</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>4.344732748803072</v>
+        <v>4.552999020347378</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.493678578961636</v>
+        <v>2.391168420866681</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>1.838680554116149</v>
+        <v>1.727782197166885</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.1093962744938933</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1574392955208565</v>
+        <v>0.1574392955208568</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.4284630838842328</v>
@@ -1839,7 +1839,7 @@
         <v>0.1034481090456424</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.06250381721822883</v>
+        <v>-0.06250381721822895</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4128829636989514</v>
+        <v>-0.3992918603643827</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3890037363361818</v>
+        <v>-0.4112773430319741</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.8459015406372449</v>
+        <v>-0.8362470544837448</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.1807842828337444</v>
+        <v>0.1570999221058159</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2507145499670992</v>
+        <v>-0.25464836004331</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1752805494901008</v>
+        <v>-0.1906168522337747</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.06836250577362801</v>
+        <v>0.0805122013762455</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1726369834662999</v>
+        <v>-0.1817498181187356</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3261192010622045</v>
+        <v>-0.327937234072961</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.6668914764468042</v>
+        <v>0.62664027371764</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.7313767712063501</v>
+        <v>0.6920204319274538</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.1447984509369292</v>
+        <v>0.1944769240755868</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.280282331161934</v>
+        <v>1.221023100119164</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.5758733980105868</v>
+        <v>0.5951686786484252</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.6844674137706918</v>
+        <v>0.723744419834096</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.8409754585190111</v>
+        <v>0.8936616206834738</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.480859706278992</v>
+        <v>0.4629862910462461</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.3690313120868631</v>
+        <v>0.3227599616050478</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.4113004135866535</v>
+        <v>-0.2682260371259393</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.926337020291458</v>
+        <v>-2.698866304604532</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.374945054414381</v>
+        <v>-2.520574028701998</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.8454861994973993</v>
+        <v>0.9228258772488944</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.9599490011340969</v>
+        <v>-0.8273928041794705</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.08308523836158152</v>
+        <v>0.09064110592121689</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.6415313007021901</v>
+        <v>0.6179876388468569</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.485940245986202</v>
+        <v>-1.504337278772345</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.7855246987708807</v>
+        <v>-0.8383887229064351</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.343933692903667</v>
+        <v>2.476099712522334</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.3026604008666325</v>
+        <v>-0.2254588859511422</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.2947675966780586</v>
+        <v>0.2152095710272375</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.270144247260806</v>
+        <v>3.206063554934077</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.30780345332251</v>
+        <v>1.447676952951052</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.052858749662973</v>
+        <v>2.00510227760249</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.42887464166471</v>
+        <v>2.376375465180522</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.2180333691320704</v>
+        <v>0.1681893893876756</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.8238325511171327</v>
+        <v>0.8299795152888029</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.04414637981027098</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1942468768908622</v>
+        <v>0.1942468768908623</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.2459870957969839</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.0519319984777161</v>
+        <v>-0.0338211949322718</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.351515698315552</v>
+        <v>-0.3367400827145439</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2930812311019909</v>
+        <v>-0.3104665658043699</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1453991845063362</v>
+        <v>0.1518830228599216</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1639031953765407</v>
+        <v>-0.1470992998513653</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01220073673869048</v>
+        <v>0.01281349736400154</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.09172010911012214</v>
+        <v>0.08936122751416113</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2188343127190013</v>
+        <v>-0.2220619999398773</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1192408140169557</v>
+        <v>-0.1228561075577241</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3485084695929073</v>
+        <v>0.3701923894500045</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.03457487042036246</v>
+        <v>-0.03375576596236507</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.04599564928639201</v>
+        <v>0.0299538193784884</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.7092550694889274</v>
+        <v>0.698723109928889</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2836132639492179</v>
+        <v>0.3100521955230418</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.4375689709463592</v>
+        <v>0.4392653751627518</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4105633179903579</v>
+        <v>0.4035230263992419</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.03855482353727154</v>
+        <v>0.02942222424195579</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.1411617131465455</v>
+        <v>0.1441685831531472</v>
       </c>
     </row>
     <row r="46">
